--- a/MISIS math Analysis/4/Анализ данных/ПР1/Расчёт коррелограммы.xlsx
+++ b/MISIS math Analysis/4/Анализ данных/ПР1/Расчёт коррелограммы.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nadej\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_repos\University_courses\Further-Mathematics-exercises\MISIS math Analysis\4\Анализ данных\ПР1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EC8A3A-B571-4AAB-8156-FE58E729756C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7099F765-AB7D-4EF0-9381-6FB292B9DBFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="12" xr2:uid="{A81F2C6D-3C9B-4AAD-8DDD-62E2FFBE2AA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{A81F2C6D-3C9B-4AAD-8DDD-62E2FFBE2AA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Лаг1" sheetId="1" r:id="rId1"/>
@@ -94,9 +94,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,7 +143,7 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -153,7 +153,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -332,7 +332,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -369,7 +369,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2089030720"/>
@@ -455,7 +455,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -487,7 +487,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2089033120"/>
@@ -535,7 +535,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -829,7 +829,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -867,7 +867,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2089030720"/>
@@ -949,7 +949,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -981,7 +981,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2089033120"/>
@@ -1029,7 +1029,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2550,22 +2550,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D215ADBA-119E-4B62-AC40-5FCB71E62737}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" customWidth="1"/>
-    <col min="6" max="6" width="24.5546875" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="19.25" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="7" max="7" width="22.875" customWidth="1"/>
+    <col min="8" max="8" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2605,7 +2605,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>375</v>
       </c>
       <c r="D3" s="7">
-        <f t="shared" ref="D3:D18" si="0">B3-$B$19</f>
+        <f t="shared" ref="D3:D17" si="0">B3-$B$19</f>
         <v>-328.93333333333328</v>
       </c>
       <c r="E3" s="6">
@@ -2637,7 +2637,7 @@
         <v>112560.25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2653,11 +2653,11 @@
         <v>169.06666666666672</v>
       </c>
       <c r="E4" s="6">
-        <f t="shared" ref="E4:E18" si="2">C4-$C$19</f>
+        <f t="shared" ref="E4:E17" si="2">C4-$C$19</f>
         <v>-339.5</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F18" si="3">D4*E4</f>
+        <f t="shared" ref="F4:F17" si="3">D4*E4</f>
         <v>-57398.133333333353</v>
       </c>
       <c r="G4" s="6">
@@ -2669,7 +2669,7 @@
         <v>115260.25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>25122.25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>92720.25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>124962.25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>57360.25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>79242.25</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>95790.25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>102720.25</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>126380.25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>79242.25</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>37830.25</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>62250.25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>65792.25</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>43890.25</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" s="5" t="s">
         <v>0</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>1221123.75</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="5" t="s">
         <v>1</v>
       </c>
@@ -3131,12 +3131,12 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22">
         <f>F18/SQRT(G18*H18)</f>
         <v>-3.8215809737342905E-3</v>
@@ -3155,9 +3155,9 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3190,7 +3190,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3203,7 +3203,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3216,7 +3216,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3229,7 +3229,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3242,7 +3242,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3255,7 +3255,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3268,7 +3268,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3281,7 +3281,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3294,7 +3294,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3306,19 +3306,19 @@
         <v>375</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" ref="D11:D22" si="0">B12-$B$19</f>
+        <f t="shared" ref="D12:D17" si="0">B12-$B$19</f>
         <v>218.83333333333337</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" ref="E11:E22" si="1">C12-$C$19</f>
+        <f t="shared" ref="E12:E17" si="1">C12-$C$19</f>
         <v>-316.60000000000002</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" ref="F11:F16" si="2">D12*E12</f>
+        <f t="shared" ref="F12:F16" si="2">D12*E12</f>
         <v>-69282.633333333346</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" ref="G11:H22" si="3">D12*D12</f>
+        <f t="shared" ref="G12:H17" si="3">D12*D12</f>
         <v>47888.027777777796</v>
       </c>
       <c r="H12" s="2">
@@ -3326,7 +3326,7 @@
         <v>100235.56000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>102784.36000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>31470.759999999991</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>104587.55999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>111957.16000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>48664.360000000008</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>499699.76</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>691.6</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22">
         <f>F18/SQRT(G18*H18)</f>
         <v>-0.66104443331277052</v>
@@ -3546,9 +3546,9 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3581,7 +3581,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3594,7 +3594,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3607,7 +3607,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3620,7 +3620,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3633,7 +3633,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3646,7 +3646,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3659,7 +3659,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3672,7 +3672,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3685,7 +3685,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3698,7 +3698,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3710,19 +3710,19 @@
         <v>375</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ref="D12:D22" si="0">B13-$B$19</f>
+        <f t="shared" ref="D13:D17" si="0">B13-$B$19</f>
         <v>48.200000000000045</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" ref="E12:E22" si="1">C13-$C$19</f>
+        <f t="shared" ref="E13:E17" si="1">C13-$C$19</f>
         <v>-371.75</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" ref="F12:F16" si="2">D13*E13</f>
+        <f t="shared" ref="F13:F16" si="2">D13*E13</f>
         <v>-17918.350000000017</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" ref="G12:H22" si="3">D13*D13</f>
+        <f t="shared" ref="G13:H17" si="3">D13*D13</f>
         <v>2323.2400000000043</v>
       </c>
       <c r="H13" s="2">
@@ -3730,7 +3730,7 @@
         <v>138198.0625</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>141188.0625</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>14945.0625</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>71958.0625</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>151905.0625</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>518194.3125</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>746.75</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22">
         <f>F18/SQRT(G18*H18)</f>
         <v>0.46685348305398128</v>
@@ -3918,9 +3918,9 @@
       <selection sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3940,7 +3940,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3953,7 +3953,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3966,7 +3966,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3979,7 +3979,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3992,7 +3992,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4005,7 +4005,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4018,7 +4018,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4031,7 +4031,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4044,7 +4044,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4057,7 +4057,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4070,7 +4070,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4083,7 +4083,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4095,19 +4095,19 @@
         <v>375</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" ref="D13:D22" si="0">B14-$B$19</f>
+        <f t="shared" ref="D14:D17" si="0">B14-$B$19</f>
         <v>-362</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" ref="E13:E22" si="1">C14-$C$19</f>
+        <f t="shared" ref="E14:E17" si="1">C14-$C$19</f>
         <v>-501.66666666666663</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" ref="F13:F16" si="2">D14*E14</f>
+        <f t="shared" ref="F14:F16" si="2">D14*E14</f>
         <v>181603.33333333331</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" ref="G13:H22" si="3">D14*D14</f>
+        <f t="shared" ref="G14:H17" si="3">D14*D14</f>
         <v>131044</v>
       </c>
       <c r="H14" s="2">
@@ -4115,7 +4115,7 @@
         <v>251669.44444444441</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>255698.77777777775</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>58.777777777777196</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>19136.11111111112</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>526563.11111111101</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>876.66666666666663</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22">
         <f>F18/SQRT(G18*H18)</f>
         <v>0.76854801988871413</v>
@@ -4267,13 +4267,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84677FA-1157-4E16-A34F-F5A92B1BD94C}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>-3.8215809737342905E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>-0.86956177517014699</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>7.8081863641437307E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>0.90366285232395505</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>-6.5205972317663147E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>-0.78180799406461832</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>0.16478635388406596</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>0.8286366166406236</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>-1.7234401313619047E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>-0.66104443331277052</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>0.46685348305398128</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>0.76854801988871413</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -4514,9 +4514,9 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4536,7 +4536,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4549,7 +4549,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4561,15 +4561,15 @@
         <v>375</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D3:D18" si="0">B4-$B$19</f>
+        <f t="shared" ref="D4:D17" si="0">B4-$B$19</f>
         <v>145.85714285714289</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E18" si="1">C4-$C$19</f>
+        <f t="shared" ref="E4:E17" si="1">C4-$C$19</f>
         <v>-319.38461538461536</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F17" si="2">D4*E4</f>
+        <f t="shared" ref="F4:F16" si="2">D4*E4</f>
         <v>-46584.527472527479</v>
       </c>
       <c r="G4" s="2">
@@ -4581,7 +4581,7 @@
         <v>102006.53254437869</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>104577.60946745561</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>30490.532544378708</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>102794.22485207103</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>113828.37869822483</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>49900.68639053253</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>88574.917159763325</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>106025.37869822487</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>92649.994082840218</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>115181.9171597633</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>88574.917159763325</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>44358.840236686403</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>54468.378698224842</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>57784.763313609452</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>1151217.0710059172</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>694.38461538461536</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22">
         <f>F18/SQRT(G18*H18)</f>
         <v>-0.86956177517014699</v>
@@ -5057,9 +5057,9 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5092,7 +5092,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5105,7 +5105,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5117,19 +5117,19 @@
         <v>375</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D4:D19" si="0">B5-$B$19</f>
+        <f t="shared" ref="D5:D17" si="0">B5-$B$19</f>
         <v>264.76923076923072</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ref="E4:E18" si="1">C5-$C$19</f>
+        <f t="shared" ref="E5:E17" si="1">C5-$C$19</f>
         <v>-339.41666666666663</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" ref="F4:F16" si="2">D5*E5</f>
+        <f t="shared" ref="F5:F16" si="2">D5*E5</f>
         <v>-89867.08974358972</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" ref="G4:H17" si="3">D5*D5</f>
+        <f t="shared" ref="G5:H17" si="3">D5*D5</f>
         <v>70102.745562130149</v>
       </c>
       <c r="H5" s="2">
@@ -5137,7 +5137,7 @@
         <v>115203.67361111108</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>117935.00694444442</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>23896.006944444456</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>90350.340277777796</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>127746.67361111108</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>59251.673611111095</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>77052.506944444467</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>93381.173611111139</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>105246.17361111108</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>129180.34027777775</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>77052.506944444467</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>36322.00694444446</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>64220.006944444423</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>1116838.0902777778</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>714.41666666666663</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22">
         <f>F18/SQRT(G18*H18)</f>
         <v>7.8081863641437307E-2</v>
@@ -5581,9 +5581,9 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5603,7 +5603,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5616,7 +5616,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5629,7 +5629,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5642,7 +5642,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5654,19 +5654,19 @@
         <v>375</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" ref="D5:D20" si="0">B6-$B$19</f>
+        <f t="shared" ref="D6:D17" si="0">B6-$B$19</f>
         <v>-383.33333333333337</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" ref="E5:E19" si="1">C6-$C$19</f>
+        <f t="shared" ref="E6:E17" si="1">C6-$C$19</f>
         <v>-362.4545454545455</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" ref="F5:F16" si="2">D6*E6</f>
+        <f t="shared" ref="F6:F16" si="2">D6*E6</f>
         <v>138940.90909090912</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" ref="G5:H18" si="3">D6*D6</f>
+        <f t="shared" ref="G6:H17" si="3">D6*D6</f>
         <v>146944.44444444447</v>
       </c>
       <c r="H6" s="2">
@@ -5674,7 +5674,7 @@
         <v>131373.29752066117</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>134288.93388429756</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>17304.206611570236</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>77031.479338842953</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>144745.66115702482</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>70998.024793388453</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>64793.388429752042</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>79831.933884297498</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>120724.66115702482</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>146271.479338843</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>64793.388429752042</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>28071.479338842961</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>1080227.9338842975</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>737.4545454545455</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22">
         <f>F18/SQRT(G18*H18)</f>
         <v>0.90366285232395505</v>
@@ -6086,9 +6086,9 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6121,7 +6121,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6134,7 +6134,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6147,7 +6147,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6160,7 +6160,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6172,19 +6172,19 @@
         <v>375</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D6:D21" si="0">B7-$B$19</f>
+        <f t="shared" ref="D7:D17" si="0">B7-$B$19</f>
         <v>-244.36363636363637</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" ref="E6:E20" si="1">C7-$C$19</f>
+        <f t="shared" ref="E7:E17" si="1">C7-$C$19</f>
         <v>-345.70000000000005</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" ref="F6:F16" si="2">D7*E7</f>
+        <f t="shared" ref="F7:F16" si="2">D7*E7</f>
         <v>84476.509090909109</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" ref="G6:H19" si="3">D7*D7</f>
+        <f t="shared" ref="G7:H17" si="3">D7*D7</f>
         <v>59713.586776859513</v>
       </c>
       <c r="H7" s="2">
@@ -6192,7 +6192,7 @@
         <v>119508.49000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>122290.09000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>21992.889999999985</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>86612.489999999976</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>132277.69000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>62350.090000000026</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>73603.689999999973</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>89580.489999999976</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>109362.49000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>133736.49000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>73603.689999999973</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>1024918.5900000001</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>720.7</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22">
         <f>F18/SQRT(G18*H18)</f>
         <v>-6.5205972317663147E-2</v>
@@ -6572,9 +6572,9 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6594,7 +6594,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6607,7 +6607,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6620,7 +6620,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6633,7 +6633,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6646,7 +6646,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6659,7 +6659,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6671,19 +6671,19 @@
         <v>375</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" ref="D7:D22" si="0">B8-$B$19</f>
+        <f t="shared" ref="D8:D17" si="0">B8-$B$19</f>
         <v>240.79999999999995</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" ref="E7:E21" si="1">C8-$C$19</f>
+        <f t="shared" ref="E8:E17" si="1">C8-$C$19</f>
         <v>-315.55555555555554</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" ref="F7:F16" si="2">D8*E8</f>
+        <f t="shared" ref="F8:F16" si="2">D8*E8</f>
         <v>-75985.777777777766</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" ref="G7:H20" si="3">D8*D8</f>
+        <f t="shared" ref="G8:H17" si="3">D8*D8</f>
         <v>57984.639999999978</v>
       </c>
       <c r="H8" s="2">
@@ -6691,7 +6691,7 @@
         <v>99575.308641975294</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>102115.75308641975</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>31842.419753086426</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>105264.1975308642</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>111259.30864197529</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>48204.641975308637</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>90868.753086419762</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>108533.64197530865</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>90333.641975308637</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>112597.53086419753</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>900595.19753086416</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -7020,7 +7020,7 @@
         <v>690.55555555555554</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22">
         <f>F18/SQRT(G18*H18)</f>
         <v>-0.78180799406461832</v>
@@ -7039,9 +7039,9 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7061,7 +7061,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7074,7 +7074,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7087,7 +7087,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7100,7 +7100,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7113,7 +7113,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7126,7 +7126,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7139,7 +7139,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7151,19 +7151,19 @@
         <v>375</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" ref="D8:D22" si="0">B9-$B$19</f>
+        <f t="shared" ref="D9:D17" si="0">B9-$B$19</f>
         <v>237.66666666666663</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" ref="E8:E22" si="1">C9-$C$19</f>
+        <f t="shared" ref="E9:E17" si="1">C9-$C$19</f>
         <v>-357.5</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" ref="F8:F16" si="2">D9*E9</f>
+        <f t="shared" ref="F9:F16" si="2">D9*E9</f>
         <v>-84965.833333333314</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" ref="G8:H21" si="3">D9*D9</f>
+        <f t="shared" ref="G9:H17" si="3">D9*D9</f>
         <v>56485.444444444423</v>
       </c>
       <c r="H9" s="2">
@@ -7171,7 +7171,7 @@
         <v>127806.25</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>130682.25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>18632.25</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>79806.25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>141000.25</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>68382.25</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>67340.25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>82656.25</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>117306.25</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>833612.25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>732.5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22">
         <f>F18/SQRT(G18*H18)</f>
         <v>0.16478635388406596</v>
@@ -7487,9 +7487,9 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7509,7 +7509,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7522,7 +7522,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7535,7 +7535,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7548,7 +7548,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7561,7 +7561,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7574,7 +7574,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7587,7 +7587,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7600,7 +7600,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7612,19 +7612,19 @@
         <v>375</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" ref="D9:D22" si="0">B10-$B$19</f>
+        <f t="shared" ref="D10:D17" si="0">B10-$B$19</f>
         <v>-366.125</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" ref="E9:E22" si="1">C10-$C$19</f>
+        <f t="shared" ref="E10:E17" si="1">C10-$C$19</f>
         <v>-406.42857142857144</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" ref="F9:F16" si="2">D10*E10</f>
+        <f t="shared" ref="F10:F16" si="2">D10*E10</f>
         <v>148803.66071428571</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" ref="G9:H22" si="3">D10*D10</f>
+        <f t="shared" ref="G10:H17" si="3">D10*D10</f>
         <v>134047.515625</v>
       </c>
       <c r="H10" s="2">
@@ -7632,7 +7632,7 @@
         <v>165184.18367346941</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>168451.61224489796</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>7668.7551020408137</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>54555.612244897951</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>180139.61224489796</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>96365.897959183683</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>44340.326530612241</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>56916.326530612234</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>773622.32653061207</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>781.42857142857144</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22">
         <f>F18/SQRT(G18*H18)</f>
         <v>0.8286366166406236</v>
@@ -7916,9 +7916,9 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7938,7 +7938,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7951,7 +7951,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7964,7 +7964,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7977,7 +7977,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7990,7 +7990,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8003,7 +8003,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8016,7 +8016,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8029,7 +8029,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8042,7 +8042,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8054,19 +8054,19 @@
         <v>375</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" ref="D10:D22" si="0">B11-$B$19</f>
+        <f t="shared" ref="D11:D17" si="0">B11-$B$19</f>
         <v>-363.42857142857144</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" ref="E10:E22" si="1">C11-$C$19</f>
+        <f t="shared" ref="E11:E17" si="1">C11-$C$19</f>
         <v>-366.66666666666663</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" ref="F10:F16" si="2">D11*E11</f>
+        <f t="shared" ref="F11:F16" si="2">D11*E11</f>
         <v>133257.14285714284</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" ref="G10:H22" si="3">D11*D11</f>
+        <f t="shared" ref="G11:H17" si="3">D11*D11</f>
         <v>132080.32653061225</v>
       </c>
       <c r="H11" s="2">
@@ -8074,7 +8074,7 @@
         <v>134444.44444444441</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>137393.77777777775</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8138,7 +8138,7 @@
         <v>16213.777777777788</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>74711.111111111139</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>147968.44444444441</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>73260.444444444423</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>62666.777777777796</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>646658.77777777764</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>741.66666666666663</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22">
         <f>F18/SQRT(G18*H18)</f>
         <v>-1.7234401313619047E-2</v>
